--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd34-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd34-Selp.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>146.901596</v>
+        <v>227.282303</v>
       </c>
       <c r="H2">
-        <v>440.704788</v>
+        <v>681.846909</v>
       </c>
       <c r="I2">
-        <v>0.5061978858527532</v>
+        <v>0.6094595465130797</v>
       </c>
       <c r="J2">
-        <v>0.5061978858527532</v>
+        <v>0.6094595465130795</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N2">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O2">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P2">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q2">
-        <v>2344.550647372768</v>
+        <v>8087.884845021782</v>
       </c>
       <c r="R2">
-        <v>21100.95582635491</v>
+        <v>72790.96360519604</v>
       </c>
       <c r="S2">
-        <v>0.5011259661169484</v>
+        <v>0.6077586343260849</v>
       </c>
       <c r="T2">
-        <v>0.5011259661169484</v>
+        <v>0.6077586343260849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>146.901596</v>
+        <v>227.282303</v>
       </c>
       <c r="H3">
-        <v>440.704788</v>
+        <v>681.846909</v>
       </c>
       <c r="I3">
-        <v>0.5061978858527532</v>
+        <v>0.6094595465130797</v>
       </c>
       <c r="J3">
-        <v>0.5061978858527532</v>
+        <v>0.6094595465130795</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N3">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O3">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P3">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q3">
-        <v>14.62469045538267</v>
+        <v>21.342035534003</v>
       </c>
       <c r="R3">
-        <v>131.622214098444</v>
+        <v>192.078319806027</v>
       </c>
       <c r="S3">
-        <v>0.003125892009126523</v>
+        <v>0.001603732819943421</v>
       </c>
       <c r="T3">
-        <v>0.003125892009126524</v>
+        <v>0.001603732819943421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>146.901596</v>
+        <v>227.282303</v>
       </c>
       <c r="H4">
-        <v>440.704788</v>
+        <v>681.846909</v>
       </c>
       <c r="I4">
-        <v>0.5061978858527532</v>
+        <v>0.6094595465130797</v>
       </c>
       <c r="J4">
-        <v>0.5061978858527532</v>
+        <v>0.6094595465130795</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N4">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O4">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P4">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q4">
-        <v>9.104618149689335</v>
+        <v>1.29323630407</v>
       </c>
       <c r="R4">
-        <v>81.94156334720401</v>
+        <v>11.63912673663</v>
       </c>
       <c r="S4">
-        <v>0.001946027726678303</v>
+        <v>9.717936705123549E-05</v>
       </c>
       <c r="T4">
-        <v>0.001946027726678303</v>
+        <v>9.717936705123549E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>416.972748</v>
       </c>
       <c r="I5">
-        <v>0.4789390295796214</v>
+        <v>0.3727053955221387</v>
       </c>
       <c r="J5">
-        <v>0.4789390295796214</v>
+        <v>0.3727053955221385</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N5">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O5">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P5">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q5">
-        <v>2218.296131287328</v>
+        <v>4946.018710097705</v>
       </c>
       <c r="R5">
-        <v>19964.66518158595</v>
+        <v>44514.16839087934</v>
       </c>
       <c r="S5">
-        <v>0.4741402337247555</v>
+        <v>0.371665229438878</v>
       </c>
       <c r="T5">
-        <v>0.4741402337247556</v>
+        <v>0.371665229438878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>416.972748</v>
       </c>
       <c r="I6">
-        <v>0.4789390295796214</v>
+        <v>0.3727053955221387</v>
       </c>
       <c r="J6">
-        <v>0.4789390295796214</v>
+        <v>0.3727053955221385</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N6">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O6">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P6">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q6">
-        <v>13.83714798176933</v>
+        <v>13.051386003316</v>
       </c>
       <c r="R6">
-        <v>124.534331835924</v>
+        <v>117.462474029844</v>
       </c>
       <c r="S6">
-        <v>0.002957562106170554</v>
+        <v>0.0009807375705058706</v>
       </c>
       <c r="T6">
-        <v>0.002957562106170554</v>
+        <v>0.0009807375705058704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>416.972748</v>
       </c>
       <c r="I7">
-        <v>0.4789390295796214</v>
+        <v>0.3727053955221387</v>
       </c>
       <c r="J7">
-        <v>0.4789390295796214</v>
+        <v>0.3727053955221385</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N7">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O7">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P7">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q7">
-        <v>8.614332661542667</v>
+        <v>0.79085831204</v>
       </c>
       <c r="R7">
-        <v>77.528993953884</v>
+        <v>7.117724808359999</v>
       </c>
       <c r="S7">
-        <v>0.001841233748695384</v>
+        <v>5.942851275469275E-05</v>
       </c>
       <c r="T7">
-        <v>0.001841233748695385</v>
+        <v>5.942851275469274E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.149135333333333</v>
+        <v>6.377814666666666</v>
       </c>
       <c r="H8">
-        <v>12.447406</v>
+        <v>19.133444</v>
       </c>
       <c r="I8">
-        <v>0.01429721385634429</v>
+        <v>0.0171021675827138</v>
       </c>
       <c r="J8">
-        <v>0.01429721385634429</v>
+        <v>0.01710216758271379</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N8">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O8">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P8">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q8">
-        <v>66.22023311308266</v>
+        <v>226.9557722093786</v>
       </c>
       <c r="R8">
-        <v>595.982098017744</v>
+        <v>2042.601949884408</v>
       </c>
       <c r="S8">
-        <v>0.01415396094448581</v>
+        <v>0.01705443794186742</v>
       </c>
       <c r="T8">
-        <v>0.01415396094448581</v>
+        <v>0.01705443794186742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.149135333333333</v>
+        <v>6.377814666666666</v>
       </c>
       <c r="H9">
-        <v>12.447406</v>
+        <v>19.133444</v>
       </c>
       <c r="I9">
-        <v>0.01429721385634429</v>
+        <v>0.0171021675827138</v>
       </c>
       <c r="J9">
-        <v>0.01429721385634429</v>
+        <v>0.01710216758271379</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N9">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O9">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P9">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q9">
-        <v>0.4130644020197777</v>
+        <v>0.5988831750146666</v>
       </c>
       <c r="R9">
-        <v>3.717579618178</v>
+        <v>5.389948575131998</v>
       </c>
       <c r="S9">
-        <v>8.828868668827244E-05</v>
+        <v>4.500267097544256E-05</v>
       </c>
       <c r="T9">
-        <v>8.828868668827248E-05</v>
+        <v>4.500267097544255E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.149135333333333</v>
+        <v>6.377814666666666</v>
       </c>
       <c r="H10">
-        <v>12.447406</v>
+        <v>19.133444</v>
       </c>
       <c r="I10">
-        <v>0.01429721385634429</v>
+        <v>0.0171021675827138</v>
       </c>
       <c r="J10">
-        <v>0.01429721385634429</v>
+        <v>0.01710216758271379</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N10">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O10">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P10">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q10">
-        <v>0.2571537266442222</v>
+        <v>0.03628976545333332</v>
       </c>
       <c r="R10">
-        <v>2.314383539798</v>
+        <v>0.3266078890799999</v>
       </c>
       <c r="S10">
-        <v>5.496422517021044E-05</v>
+        <v>2.726969870930748E-06</v>
       </c>
       <c r="T10">
-        <v>5.496422517021046E-05</v>
+        <v>2.726969870930747E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.164219</v>
+        <v>0.2733126666666666</v>
       </c>
       <c r="H11">
-        <v>0.492657</v>
+        <v>0.8199379999999999</v>
       </c>
       <c r="I11">
-        <v>0.0005658707112811304</v>
+        <v>0.0007328903820679218</v>
       </c>
       <c r="J11">
-        <v>0.0005658707112811305</v>
+        <v>0.0007328903820679217</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.960008</v>
+        <v>35.585194</v>
       </c>
       <c r="N11">
-        <v>47.880024</v>
+        <v>106.755582</v>
       </c>
       <c r="O11">
-        <v>0.9899803616776065</v>
+        <v>0.9972091466993565</v>
       </c>
       <c r="P11">
-        <v>0.9899803616776066</v>
+        <v>0.9972091466993567</v>
       </c>
       <c r="Q11">
-        <v>2.620936553752</v>
+        <v>9.725884265990667</v>
       </c>
       <c r="R11">
-        <v>23.588428983768</v>
+        <v>87.53295839391599</v>
       </c>
       <c r="S11">
-        <v>0.0005602008914168578</v>
+        <v>0.0007308449925261176</v>
       </c>
       <c r="T11">
-        <v>0.000560200891416858</v>
+        <v>0.0007308449925261177</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.164219</v>
+        <v>0.2733126666666666</v>
       </c>
       <c r="H12">
-        <v>0.492657</v>
+        <v>0.8199379999999999</v>
       </c>
       <c r="I12">
-        <v>0.0005658707112811304</v>
+        <v>0.0007328903820679218</v>
       </c>
       <c r="J12">
-        <v>0.0005658707112811305</v>
+        <v>0.0007328903820679217</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.09955433333333334</v>
+        <v>0.093901</v>
       </c>
       <c r="N12">
-        <v>0.298663</v>
+        <v>0.281703</v>
       </c>
       <c r="O12">
-        <v>0.006175237187845165</v>
+        <v>0.002631401590341653</v>
       </c>
       <c r="P12">
-        <v>0.006175237187845166</v>
+        <v>0.002631401590341654</v>
       </c>
       <c r="Q12">
-        <v>0.01634871306566667</v>
+        <v>0.02566433271266666</v>
       </c>
       <c r="R12">
-        <v>0.147138417591</v>
+        <v>0.230978994414</v>
       </c>
       <c r="S12">
-        <v>3.49438585981563E-06</v>
+        <v>1.928528916919631E-06</v>
       </c>
       <c r="T12">
-        <v>3.494385859815632E-06</v>
+        <v>1.928528916919631E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2733126666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.8199379999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.0007328903820679218</v>
+      </c>
+      <c r="J13">
+        <v>0.0007328903820679217</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.164219</v>
-      </c>
-      <c r="H13">
-        <v>0.492657</v>
-      </c>
-      <c r="I13">
-        <v>0.0005658707112811304</v>
-      </c>
-      <c r="J13">
-        <v>0.0005658707112811305</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M13">
-        <v>0.06197766666666667</v>
+        <v>0.00569</v>
       </c>
       <c r="N13">
-        <v>0.185933</v>
+        <v>0.01707</v>
       </c>
       <c r="O13">
-        <v>0.003844401134548354</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="P13">
-        <v>0.003844401134548355</v>
+        <v>0.0001594517103017434</v>
       </c>
       <c r="Q13">
-        <v>0.01017791044233333</v>
+        <v>0.001555149073333333</v>
       </c>
       <c r="R13">
-        <v>0.091601193981</v>
+        <v>0.01399634166</v>
       </c>
       <c r="S13">
-        <v>2.175434004456862E-06</v>
+        <v>1.168606248844283E-07</v>
       </c>
       <c r="T13">
-        <v>2.175434004456862E-06</v>
+        <v>1.168606248844283E-07</v>
       </c>
     </row>
   </sheetData>
